--- a/utah_aba_providers.xlsx
+++ b/utah_aba_providers.xlsx
@@ -817,7 +817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3600,1653 +3600,1653 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="inlineStr">
-        <is>
-          <t>Golden Touch ABA</t>
-        </is>
-      </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>(801) 630-5443</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>info@goldentouchaba.com</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>www.goldentouchaba.com</t>
-        </is>
-      </c>
-      <c r="E53" s="3" t="inlineStr"/>
-      <c r="F53" s="3" t="inlineStr">
-        <is>
-          <t>BCBS, DMBA, EMI, Medicaid, PEHP</t>
-        </is>
-      </c>
-      <c r="G53" s="3" t="inlineStr">
-        <is>
-          <t>Salt Lake, Utah, Wasatch, Weber</t>
-        </is>
-      </c>
-      <c r="H53" s="3" t="inlineStr">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>Gracious Growth ABA</t>
+        </is>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>(801) 841-2824</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>info@graciousgrowthaba.com</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="inlineStr">
+        <is>
+          <t>graciousgrowthaba.com</t>
+        </is>
+      </c>
+      <c r="E53" s="5" t="inlineStr">
+        <is>
+          <t>50 W Broadway #333, Salt Lake City, UT 84101</t>
+        </is>
+      </c>
+      <c r="F53" s="5" t="inlineStr">
+        <is>
+          <t>All insurances</t>
+        </is>
+      </c>
+      <c r="G53" s="5" t="inlineStr">
+        <is>
+          <t>Statewide</t>
+        </is>
+      </c>
+      <c r="H53" s="5" t="inlineStr">
+        <is>
+          <t>2 to 18 years</t>
+        </is>
+      </c>
+      <c r="I53" s="5" t="inlineStr">
+        <is>
+          <t>No waitlist</t>
+        </is>
+      </c>
+      <c r="J53" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>Heartwise Support</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>(801) 609-6022</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>jmccolloch@heartwisesupport.org</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>www.heartwisesupport.org</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>460 W 50 N Salt Lake City, UT 84101</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>Medicaid, BCBS, PEHP</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t>Davis, Salt Lake, Weber</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>2 to 18 years</t>
+        </is>
+      </c>
+      <c r="I54" s="3" t="inlineStr">
+        <is>
+          <t>No waitlist</t>
+        </is>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>Honey Beehavior Analysis</t>
+        </is>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>(801) 317-8225</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>tricia.hayner@honeyaba.org</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
+        <is>
+          <t>www.honeyaba.org</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="inlineStr"/>
+      <c r="F55" s="5" t="inlineStr">
+        <is>
+          <t>Medicaid, United, Cigna, Aetna, EMI</t>
+        </is>
+      </c>
+      <c r="G55" s="5" t="inlineStr">
+        <is>
+          <t>Salt Lake, Iron, Statewide via telehealth</t>
+        </is>
+      </c>
+      <c r="H55" s="5" t="inlineStr">
+        <is>
+          <t>All ages</t>
+        </is>
+      </c>
+      <c r="I55" s="5" t="inlineStr">
+        <is>
+          <t>Contact provider</t>
+        </is>
+      </c>
+      <c r="J55" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K55" s="5" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>Integrated Autism Therapies</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>(801) 885-1700</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>barb@iatutah.com</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>www.iatutah.com</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>7733 S Redwood Road, West Jordan, UT 84084</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>Medicaid, PEHP, UHC, Tricare, BCBS</t>
+        </is>
+      </c>
+      <c r="G56" s="3" t="inlineStr">
+        <is>
+          <t>Salt Lake</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="inlineStr">
+        <is>
+          <t>All ages</t>
+        </is>
+      </c>
+      <c r="I56" s="3" t="inlineStr"/>
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K56" s="3" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>Just Parent</t>
+        </is>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>(385) 376-3787</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr"/>
+      <c r="D57" s="5" t="inlineStr">
+        <is>
+          <t>www.justparent.com</t>
+        </is>
+      </c>
+      <c r="E57" s="5" t="inlineStr"/>
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>Medicaid, Magellan, BCBS</t>
+        </is>
+      </c>
+      <c r="G57" s="5" t="inlineStr">
+        <is>
+          <t>Statewide via telemedicine</t>
+        </is>
+      </c>
+      <c r="H57" s="5" t="inlineStr">
+        <is>
+          <t>All ages</t>
+        </is>
+      </c>
+      <c r="I57" s="5" t="inlineStr">
+        <is>
+          <t>Contact provider</t>
+        </is>
+      </c>
+      <c r="J57" s="5" t="inlineStr">
+        <is>
+          <t>Contact provider</t>
+        </is>
+      </c>
+      <c r="K57" s="5" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>Kids On The Move</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>(385) 292-5633</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>crice@kotm.org</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>kotm.org</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>475 West 260 North Orem, UT 84057</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>Medicaid, Select Health, U of U, DMBA, BCBS</t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="inlineStr">
+        <is>
+          <t>Clinic in Orem, in-home in Utah County</t>
+        </is>
+      </c>
+      <c r="H58" s="3" t="inlineStr">
+        <is>
+          <t>Up to 17 years</t>
+        </is>
+      </c>
+      <c r="I58" s="3" t="inlineStr">
+        <is>
+          <t>Contact provider</t>
+        </is>
+      </c>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>Contact provider</t>
+        </is>
+      </c>
+      <c r="K58" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>Kyo Autism Therapy</t>
+        </is>
+      </c>
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>1-877-264-6747</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>info@kyocare.com</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="inlineStr">
+        <is>
+          <t>kyocare.com</t>
+        </is>
+      </c>
+      <c r="E59" s="5" t="inlineStr">
+        <is>
+          <t>5242 S College Drive, Ste 380 Murray, UT 84123</t>
+        </is>
+      </c>
+      <c r="F59" s="5" t="inlineStr">
+        <is>
+          <t>Aetna, Cigna, Humana, Regence, Select Health, UHC, Medicaid</t>
+        </is>
+      </c>
+      <c r="G59" s="5" t="inlineStr">
+        <is>
+          <t>Davis, Salt Lake, Utah</t>
+        </is>
+      </c>
+      <c r="H59" s="5" t="inlineStr">
+        <is>
+          <t>Up to 22 years</t>
+        </is>
+      </c>
+      <c r="I59" s="5" t="inlineStr"/>
+      <c r="J59" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>Learning Solutions LLC</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>(435) 299-2399</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>admin@LS-Inc.org</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>LearningSolutionsInc.org</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>80 N Vernal Ave, Vernal, UT 84078</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>Call provider</t>
+        </is>
+      </c>
+      <c r="G60" s="3" t="inlineStr">
+        <is>
+          <t>Uintah Basin and Tri-County area</t>
+        </is>
+      </c>
+      <c r="H60" s="3" t="inlineStr">
         <is>
           <t>Up to 18 years</t>
         </is>
       </c>
-      <c r="I53" s="3" t="inlineStr">
+      <c r="I60" s="3" t="inlineStr">
+        <is>
+          <t>6 months</t>
+        </is>
+      </c>
+      <c r="J60" s="3" t="inlineStr"/>
+      <c r="K60" s="3" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>Lexington Services</t>
+        </is>
+      </c>
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>(801) 980-7970</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>utahinfo@lexingtonservices.com</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="inlineStr">
+        <is>
+          <t>www.lexingtonservices.com</t>
+        </is>
+      </c>
+      <c r="E61" s="5" t="inlineStr"/>
+      <c r="F61" s="5" t="inlineStr">
+        <is>
+          <t>Select Health, U of U, Cigna, BCBS, UHC, Medicaid</t>
+        </is>
+      </c>
+      <c r="G61" s="5" t="inlineStr">
+        <is>
+          <t>Salt Lake, Utah, Davis, Weber</t>
+        </is>
+      </c>
+      <c r="H61" s="5" t="inlineStr">
+        <is>
+          <t>All ages</t>
+        </is>
+      </c>
+      <c r="I61" s="5" t="inlineStr"/>
+      <c r="J61" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>Lighthouse Youth &amp; Family</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>(435) 790-2757</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>lbretorr.aba@gmail.com</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>www.lighthouseyouthandfamily.com</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>365 W 50 N Ste W8, Vernal, UT 84078</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
+        <is>
+          <t>Regence, BCBS, Medicaid, PEHP, Selecthealth</t>
+        </is>
+      </c>
+      <c r="G62" s="3" t="inlineStr">
+        <is>
+          <t>Uintah, Duchesne</t>
+        </is>
+      </c>
+      <c r="H62" s="3" t="inlineStr">
+        <is>
+          <t>All ages</t>
+        </is>
+      </c>
+      <c r="I62" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K62" s="3" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>Limitless Potential</t>
+        </is>
+      </c>
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>(385) 426-9644</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>bekka@limitless-ut.com</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="inlineStr">
+        <is>
+          <t>limitless-ut.com</t>
+        </is>
+      </c>
+      <c r="E63" s="5" t="inlineStr">
+        <is>
+          <t>4881 S 1900 W, Roy, UT 84067</t>
+        </is>
+      </c>
+      <c r="F63" s="5" t="inlineStr">
+        <is>
+          <t>Medicaid, Tricare, Aetna, BCBS, UHC</t>
+        </is>
+      </c>
+      <c r="G63" s="5" t="inlineStr">
+        <is>
+          <t>Weber, Davis</t>
+        </is>
+      </c>
+      <c r="H63" s="5" t="inlineStr">
+        <is>
+          <t>All ages</t>
+        </is>
+      </c>
+      <c r="I63" s="5" t="inlineStr">
+        <is>
+          <t>No wait daytime</t>
+        </is>
+      </c>
+      <c r="J63" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>Manning Behavior Services</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>(801) 548-3091</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>christine@manningbehaviorservices.com</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>www.manningbehaviorservices.com</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr"/>
+      <c r="F64" s="3" t="inlineStr">
+        <is>
+          <t>BCBS, UHC, Medicaid, Select Health, PEHP</t>
+        </is>
+      </c>
+      <c r="G64" s="3" t="inlineStr">
+        <is>
+          <t>Weber, Davis, Salt Lake</t>
+        </is>
+      </c>
+      <c r="H64" s="3" t="inlineStr">
+        <is>
+          <t>2 to 25 years</t>
+        </is>
+      </c>
+      <c r="I64" s="3" t="inlineStr">
+        <is>
+          <t>Daytime no waitlist</t>
+        </is>
+      </c>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>Contact provider</t>
+        </is>
+      </c>
+      <c r="K64" s="3" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>Mendability Sensory Enrichment</t>
+        </is>
+      </c>
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>1-888-579-7002</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="inlineStr"/>
+      <c r="D65" s="5" t="inlineStr">
+        <is>
+          <t>www.mendability.com</t>
+        </is>
+      </c>
+      <c r="E65" s="5" t="inlineStr">
+        <is>
+          <t>915 S 500 E, Ste 101, American Fork, UT 84003</t>
+        </is>
+      </c>
+      <c r="F65" s="5" t="inlineStr"/>
+      <c r="G65" s="5" t="inlineStr">
+        <is>
+          <t>Weber, Davis, Salt Lake</t>
+        </is>
+      </c>
+      <c r="H65" s="5" t="inlineStr">
+        <is>
+          <t>All ages</t>
+        </is>
+      </c>
+      <c r="I65" s="5" t="inlineStr">
+        <is>
+          <t>Contact provider</t>
+        </is>
+      </c>
+      <c r="J65" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K65" s="5" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>Neurobehavioral Center for Growth</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>(801) 683-1062</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>admin@neurobcg.com</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>www.neurobcg.com</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>415 S Medical Dr, Ste D101, Bountiful, UT 84010</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="inlineStr">
+        <is>
+          <t>Medicaid, most including Tri-Care, Optum</t>
+        </is>
+      </c>
+      <c r="G66" s="3" t="inlineStr">
+        <is>
+          <t>Bountiful, Layton, Salt Lake City, South Ogden</t>
+        </is>
+      </c>
+      <c r="H66" s="3" t="inlineStr">
+        <is>
+          <t>3 to 9 years</t>
+        </is>
+      </c>
+      <c r="I66" s="3" t="inlineStr">
+        <is>
+          <t>Contact provider</t>
+        </is>
+      </c>
+      <c r="J66" s="3" t="inlineStr"/>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>PBJ &amp; Friends</t>
+        </is>
+      </c>
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>(801) 997-6839</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="inlineStr"/>
+      <c r="D67" s="5" t="inlineStr">
+        <is>
+          <t>pbjandfriends.com</t>
+        </is>
+      </c>
+      <c r="E67" s="5" t="inlineStr">
+        <is>
+          <t>1305 Commerce Dr, Ste 120, Saratoga Springs, UT 84045</t>
+        </is>
+      </c>
+      <c r="F67" s="5" t="inlineStr">
+        <is>
+          <t>Aetna, BCBS, Cigna, DMBA, EMI, Medicaid, UHC</t>
+        </is>
+      </c>
+      <c r="G67" s="5" t="inlineStr">
+        <is>
+          <t>Utah (Saratoga Springs)</t>
+        </is>
+      </c>
+      <c r="H67" s="5" t="inlineStr">
+        <is>
+          <t>Up to 18 years</t>
+        </is>
+      </c>
+      <c r="I67" s="5" t="inlineStr">
+        <is>
+          <t>2 months evenings</t>
+        </is>
+      </c>
+      <c r="J67" s="5" t="inlineStr">
+        <is>
+          <t>Contact provider</t>
+        </is>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>Peak Era ABA</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>(801) 406-6529</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>peak.era.aba@gmail.com</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>www.peakeraaba.com</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr"/>
+      <c r="F68" s="3" t="inlineStr">
+        <is>
+          <t>Tricare, BCBS, Medicaid, UHC, Aetna, Cigna</t>
+        </is>
+      </c>
+      <c r="G68" s="3" t="inlineStr">
+        <is>
+          <t>Salt Lake, Utah, Davis, Wasatch, Summit</t>
+        </is>
+      </c>
+      <c r="H68" s="3" t="inlineStr">
+        <is>
+          <t>5 to 22 years</t>
+        </is>
+      </c>
+      <c r="I68" s="3" t="inlineStr">
         <is>
           <t>No waitlist</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K53" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="5" t="inlineStr">
-        <is>
-          <t>Gracious Growth ABA</t>
-        </is>
-      </c>
-      <c r="B54" s="5" t="inlineStr">
-        <is>
-          <t>(801) 841-2824</t>
-        </is>
-      </c>
-      <c r="C54" s="5" t="inlineStr">
-        <is>
-          <t>info@graciousgrowthaba.com</t>
-        </is>
-      </c>
-      <c r="D54" s="5" t="inlineStr">
-        <is>
-          <t>graciousgrowthaba.com</t>
-        </is>
-      </c>
-      <c r="E54" s="5" t="inlineStr">
-        <is>
-          <t>50 W Broadway #333, Salt Lake City, UT 84101</t>
-        </is>
-      </c>
-      <c r="F54" s="5" t="inlineStr">
-        <is>
-          <t>All insurances</t>
-        </is>
-      </c>
-      <c r="G54" s="5" t="inlineStr">
-        <is>
-          <t>Statewide</t>
-        </is>
-      </c>
-      <c r="H54" s="5" t="inlineStr">
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K68" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>Perfect Piece</t>
+        </is>
+      </c>
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>(508) 733-7279</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>Lauren@PerfectPiece.org</t>
+        </is>
+      </c>
+      <c r="D69" s="5" t="inlineStr">
+        <is>
+          <t>www.PerfectPiece.org</t>
+        </is>
+      </c>
+      <c r="E69" s="5" t="inlineStr">
+        <is>
+          <t>9980 S 300 W, Ste 200, Sandy, UT 84070</t>
+        </is>
+      </c>
+      <c r="F69" s="5" t="inlineStr">
+        <is>
+          <t>Medicaid, most insurances</t>
+        </is>
+      </c>
+      <c r="G69" s="5" t="inlineStr">
+        <is>
+          <t>Salt Lake, Northern Utah</t>
+        </is>
+      </c>
+      <c r="H69" s="5" t="inlineStr">
+        <is>
+          <t>2 to 21 years</t>
+        </is>
+      </c>
+      <c r="I69" s="5" t="inlineStr"/>
+      <c r="J69" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K69" s="5" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>Pingree Autism Center</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>(801) 581-0194</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr"/>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>www.carmenbpingree.com</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>780 S Guardsman Way, SLC, Utah 84108</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="inlineStr">
+        <is>
+          <t>Medicaid</t>
+        </is>
+      </c>
+      <c r="G70" s="3" t="inlineStr">
+        <is>
+          <t>Salt Lake City</t>
+        </is>
+      </c>
+      <c r="H70" s="3" t="inlineStr">
+        <is>
+          <t>3 to 18 years</t>
+        </is>
+      </c>
+      <c r="I70" s="3" t="inlineStr"/>
+      <c r="J70" s="3" t="inlineStr"/>
+      <c r="K70" s="3" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>Precision Learning &amp; Behavioral</t>
+        </is>
+      </c>
+      <c r="B71" s="5" t="inlineStr">
+        <is>
+          <t>(435) 219-1603</t>
+        </is>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>sodriscoll@precisionlearningbc.org</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="inlineStr"/>
+      <c r="E71" s="5" t="inlineStr">
+        <is>
+          <t>390 W Main Ste 100 Vernal, UT 84078</t>
+        </is>
+      </c>
+      <c r="F71" s="5" t="inlineStr">
+        <is>
+          <t>Medicaid, BCBS, PEHP, Tricare, Molina</t>
+        </is>
+      </c>
+      <c r="G71" s="5" t="inlineStr">
+        <is>
+          <t>Tri-County: Uintah, Duchesne, Dagget</t>
+        </is>
+      </c>
+      <c r="H71" s="5" t="inlineStr">
+        <is>
+          <t>All ages</t>
+        </is>
+      </c>
+      <c r="I71" s="5" t="inlineStr">
+        <is>
+          <t>No waitlist</t>
+        </is>
+      </c>
+      <c r="J71" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K71" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>Primary Children's ABA Clinic</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>(801) 285-1300</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr"/>
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>intermountainhealthcare.org</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>3773 W 12600 S, Riverton UT 84065</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="inlineStr">
+        <is>
+          <t>Most major and local plans</t>
+        </is>
+      </c>
+      <c r="G72" s="3" t="inlineStr">
+        <is>
+          <t>Riverton</t>
+        </is>
+      </c>
+      <c r="H72" s="3" t="inlineStr">
+        <is>
+          <t>2 to 6 years</t>
+        </is>
+      </c>
+      <c r="I72" s="3" t="inlineStr">
+        <is>
+          <t>No waitlist</t>
+        </is>
+      </c>
+      <c r="J72" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K72" s="3" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>Radiant Behavior Solutions</t>
+        </is>
+      </c>
+      <c r="B73" s="5" t="inlineStr"/>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>info@radiantbehavior.com</t>
+        </is>
+      </c>
+      <c r="D73" s="5" t="inlineStr">
+        <is>
+          <t>www.radiantbehavior.com</t>
+        </is>
+      </c>
+      <c r="E73" s="5" t="inlineStr"/>
+      <c r="F73" s="5" t="inlineStr">
+        <is>
+          <t>Medicaid, UUHP, PEHP, Cigna, Aetna</t>
+        </is>
+      </c>
+      <c r="G73" s="5" t="inlineStr">
+        <is>
+          <t>Box Elder, Cache, Salt Lake, Utah</t>
+        </is>
+      </c>
+      <c r="H73" s="5" t="inlineStr">
+        <is>
+          <t>All ages</t>
+        </is>
+      </c>
+      <c r="I73" s="5" t="inlineStr">
+        <is>
+          <t>No waitlist</t>
+        </is>
+      </c>
+      <c r="J73" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K73" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>Re Therapy Services</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="inlineStr">
+        <is>
+          <t>(801) 210-9319</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr"/>
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>www.retherapyservices.com</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>727 S Main Street, Spanish Fork, UT 84660</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="inlineStr">
+        <is>
+          <t>U of U, BCBS, Cigna, PEHP, Optum, Aetna, Medicaid</t>
+        </is>
+      </c>
+      <c r="G74" s="3" t="inlineStr">
+        <is>
+          <t>Utah, Delta, Nephi</t>
+        </is>
+      </c>
+      <c r="H74" s="3" t="inlineStr">
         <is>
           <t>2 to 18 years</t>
         </is>
       </c>
-      <c r="I54" s="5" t="inlineStr">
+      <c r="I74" s="3" t="inlineStr"/>
+      <c r="J74" s="3" t="inlineStr"/>
+      <c r="K74" s="3" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>Reaching Milestones</t>
+        </is>
+      </c>
+      <c r="B75" s="5" t="inlineStr">
+        <is>
+          <t>(678) 656-4716</t>
+        </is>
+      </c>
+      <c r="C75" s="5" t="inlineStr"/>
+      <c r="D75" s="5" t="inlineStr">
+        <is>
+          <t>www.reachingmilestones.com</t>
+        </is>
+      </c>
+      <c r="E75" s="5" t="inlineStr">
+        <is>
+          <t>365 W 1550 N, Layton, UT 84041</t>
+        </is>
+      </c>
+      <c r="F75" s="5" t="inlineStr">
+        <is>
+          <t>Aetna, BCBS, Cigna, Tri-Care, UnitedHealth</t>
+        </is>
+      </c>
+      <c r="G75" s="5" t="inlineStr">
+        <is>
+          <t>Layton area</t>
+        </is>
+      </c>
+      <c r="H75" s="5" t="inlineStr">
+        <is>
+          <t>2 to 18 years</t>
+        </is>
+      </c>
+      <c r="I75" s="5" t="inlineStr"/>
+      <c r="J75" s="5" t="inlineStr"/>
+      <c r="K75" s="5" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>Rogue Behavior Services</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>(385) 321-7880</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>info@roguebx.com</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>roguebehaviorservices.com</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr"/>
+      <c r="F76" s="3" t="inlineStr">
+        <is>
+          <t>Medicaid, Regence, Optum, UHC, Select Health</t>
+        </is>
+      </c>
+      <c r="G76" s="3" t="inlineStr">
+        <is>
+          <t>Box Elder, Cache, Davis, Iron, Kane, Salt Lake, Utah, Washington, Weber</t>
+        </is>
+      </c>
+      <c r="H76" s="3" t="inlineStr">
+        <is>
+          <t>All ages</t>
+        </is>
+      </c>
+      <c r="I76" s="3" t="inlineStr">
         <is>
           <t>No waitlist</t>
         </is>
       </c>
-      <c r="J54" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K54" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="inlineStr">
-        <is>
-          <t>Heartwise Support</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>(801) 609-6022</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>jmccolloch@heartwisesupport.org</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>www.heartwisesupport.org</t>
-        </is>
-      </c>
-      <c r="E55" s="3" t="inlineStr">
-        <is>
-          <t>460 W 50 N Salt Lake City, UT 84101</t>
-        </is>
-      </c>
-      <c r="F55" s="3" t="inlineStr">
-        <is>
-          <t>Medicaid, BCBS, PEHP</t>
-        </is>
-      </c>
-      <c r="G55" s="3" t="inlineStr">
-        <is>
-          <t>Davis, Salt Lake, Weber</t>
-        </is>
-      </c>
-      <c r="H55" s="3" t="inlineStr">
+      <c r="J76" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K76" s="3" t="inlineStr">
+        <is>
+          <t>Yes (some locations)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>Sandstone Autism Services</t>
+        </is>
+      </c>
+      <c r="B77" s="5" t="inlineStr">
+        <is>
+          <t>(801) 696-9779</t>
+        </is>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>sandstoneautismservices@gmail.com</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="inlineStr">
+        <is>
+          <t>www.sandstoneautismservices.org</t>
+        </is>
+      </c>
+      <c r="E77" s="5" t="inlineStr">
+        <is>
+          <t>95 S 100 E St 300, Payson, UT 84651</t>
+        </is>
+      </c>
+      <c r="F77" s="5" t="inlineStr">
+        <is>
+          <t>Aetna, BCBS, Select Health, EMI, DMBA, Medicaid, U of U</t>
+        </is>
+      </c>
+      <c r="G77" s="5" t="inlineStr">
+        <is>
+          <t>Utah, Juab, Sanpete, Washington, Cache</t>
+        </is>
+      </c>
+      <c r="H77" s="5" t="inlineStr">
+        <is>
+          <t>All ages</t>
+        </is>
+      </c>
+      <c r="I77" s="5" t="inlineStr"/>
+      <c r="J77" s="5" t="inlineStr"/>
+      <c r="K77" s="5" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>Simple Behavior Solutions</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>(951) 905-8652</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>office@simplebehaviorsolutions.com</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>Simplebehaviorsolutions.com</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr"/>
+      <c r="F78" s="3" t="inlineStr">
+        <is>
+          <t>Medicaid, private pay</t>
+        </is>
+      </c>
+      <c r="G78" s="3" t="inlineStr">
+        <is>
+          <t>St George</t>
+        </is>
+      </c>
+      <c r="H78" s="3" t="inlineStr">
+        <is>
+          <t>Up to 15 years</t>
+        </is>
+      </c>
+      <c r="I78" s="3" t="inlineStr">
+        <is>
+          <t>No waitlist</t>
+        </is>
+      </c>
+      <c r="J78" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K78" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>Success on the Spectrum</t>
+        </is>
+      </c>
+      <c r="B79" s="5" t="inlineStr">
+        <is>
+          <t>(385) 486-4190</t>
+        </is>
+      </c>
+      <c r="C79" s="5" t="inlineStr">
+        <is>
+          <t>americanfork@successonthespectrum.com</t>
+        </is>
+      </c>
+      <c r="D79" s="5" t="inlineStr">
+        <is>
+          <t>www.successonthespectrum.com</t>
+        </is>
+      </c>
+      <c r="E79" s="5" t="inlineStr">
+        <is>
+          <t>36 N 1100 E, Ste B American Fork, UT 84003</t>
+        </is>
+      </c>
+      <c r="F79" s="5" t="inlineStr">
+        <is>
+          <t>Medicaid, EMI, BCBS, Select Health</t>
+        </is>
+      </c>
+      <c r="G79" s="5" t="inlineStr">
+        <is>
+          <t>Utah, Salt Lake</t>
+        </is>
+      </c>
+      <c r="H79" s="5" t="inlineStr">
+        <is>
+          <t>Up to 18 years</t>
+        </is>
+      </c>
+      <c r="I79" s="5" t="inlineStr">
+        <is>
+          <t>No waitlist</t>
+        </is>
+      </c>
+      <c r="J79" s="5" t="inlineStr"/>
+      <c r="K79" s="5" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>Summit Behavior Services</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="inlineStr">
+        <is>
+          <t>(435) 275-8911</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr"/>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>www.summitbehaviorservicesutah.weebly.com</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>162 N 400 E, Ste A105, St. George, UT 84770</t>
+        </is>
+      </c>
+      <c r="F80" s="3" t="inlineStr">
+        <is>
+          <t>Medicaid</t>
+        </is>
+      </c>
+      <c r="G80" s="3" t="inlineStr">
+        <is>
+          <t>St. George, Cedar City</t>
+        </is>
+      </c>
+      <c r="H80" s="3" t="inlineStr">
+        <is>
+          <t>3 to 18 years</t>
+        </is>
+      </c>
+      <c r="I80" s="3" t="inlineStr">
+        <is>
+          <t>Contact provider</t>
+        </is>
+      </c>
+      <c r="J80" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K80" s="3" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>Transitional Behavior Support</t>
+        </is>
+      </c>
+      <c r="B81" s="5" t="inlineStr">
+        <is>
+          <t>(385) 245-2555</t>
+        </is>
+      </c>
+      <c r="C81" s="5" t="inlineStr">
+        <is>
+          <t>leslielilino@transitionalbehaviorsupport.com</t>
+        </is>
+      </c>
+      <c r="D81" s="5" t="inlineStr">
+        <is>
+          <t>www.transitionalbehaviorsupport.com</t>
+        </is>
+      </c>
+      <c r="E81" s="5" t="inlineStr"/>
+      <c r="F81" s="5" t="inlineStr">
+        <is>
+          <t>BCBS, Select Health, Cigna, Medicaid, Aetna, DSPD</t>
+        </is>
+      </c>
+      <c r="G81" s="5" t="inlineStr">
+        <is>
+          <t>Summit: Heber, Midway; Utah: Lehi, Orem, Provo</t>
+        </is>
+      </c>
+      <c r="H81" s="5" t="inlineStr">
+        <is>
+          <t>3 to 65 years</t>
+        </is>
+      </c>
+      <c r="I81" s="5" t="inlineStr">
+        <is>
+          <t>No waitlist</t>
+        </is>
+      </c>
+      <c r="J81" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K81" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>Utah Autism Academy</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="inlineStr">
+        <is>
+          <t>(801) 456-9955</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr"/>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>utahautismacademy.com</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>7434 S State Street, Midvale, Utah 84047</t>
+        </is>
+      </c>
+      <c r="F82" s="3" t="inlineStr">
+        <is>
+          <t>Medicaid, most insurances</t>
+        </is>
+      </c>
+      <c r="G82" s="3" t="inlineStr">
+        <is>
+          <t>Midvale, Orem, St. George</t>
+        </is>
+      </c>
+      <c r="H82" s="3" t="inlineStr">
+        <is>
+          <t>2 to 21 years</t>
+        </is>
+      </c>
+      <c r="I82" s="3" t="inlineStr"/>
+      <c r="J82" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K82" s="3" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>Utah Behavior Services</t>
+        </is>
+      </c>
+      <c r="B83" s="5" t="inlineStr">
+        <is>
+          <t>(801) 255-5131</t>
+        </is>
+      </c>
+      <c r="C83" s="5" t="inlineStr">
+        <is>
+          <t>office@utbs.com</t>
+        </is>
+      </c>
+      <c r="D83" s="5" t="inlineStr">
+        <is>
+          <t>utahbehaviorservices.com</t>
+        </is>
+      </c>
+      <c r="E83" s="5" t="inlineStr"/>
+      <c r="F83" s="5" t="inlineStr">
+        <is>
+          <t>Medicaid, most insurances</t>
+        </is>
+      </c>
+      <c r="G83" s="5" t="inlineStr">
+        <is>
+          <t>Bear River, Brigham City, Cedar City, Lehi, SLC, Richfield, Riverdale, St. George</t>
+        </is>
+      </c>
+      <c r="H83" s="5" t="inlineStr">
+        <is>
+          <t>Up to 21 years</t>
+        </is>
+      </c>
+      <c r="I83" s="5" t="inlineStr"/>
+      <c r="J83" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K83" s="5" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>Whole Child Therapy</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>(801) 210-9319</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>contactus@twctherapy.com</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>www.thewholechildtherapy.com</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>1570 N Main Street, Spanish Fork, UT 84660</t>
+        </is>
+      </c>
+      <c r="F84" s="3" t="inlineStr">
+        <is>
+          <t>Select Health, Medicaid, U of U, PEHP, BCBS, UHC</t>
+        </is>
+      </c>
+      <c r="G84" s="3" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="H84" s="3" t="inlineStr">
         <is>
           <t>2 to 18 years</t>
         </is>
       </c>
-      <c r="I55" s="3" t="inlineStr">
+      <c r="I84" s="3" t="inlineStr">
+        <is>
+          <t>Afterschool 9 months</t>
+        </is>
+      </c>
+      <c r="J84" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K84" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t>Wildflower Grove ABA</t>
+        </is>
+      </c>
+      <c r="B85" s="5" t="inlineStr">
+        <is>
+          <t>(801) 630-8420</t>
+        </is>
+      </c>
+      <c r="C85" s="5" t="inlineStr">
+        <is>
+          <t>Danielle@finnihealth.com</t>
+        </is>
+      </c>
+      <c r="D85" s="5" t="inlineStr">
+        <is>
+          <t>www.wildflowergroveaba.com</t>
+        </is>
+      </c>
+      <c r="E85" s="5" t="inlineStr"/>
+      <c r="F85" s="5" t="inlineStr">
+        <is>
+          <t>Most insurances</t>
+        </is>
+      </c>
+      <c r="G85" s="5" t="inlineStr">
+        <is>
+          <t>Salt Lake</t>
+        </is>
+      </c>
+      <c r="H85" s="5" t="inlineStr">
+        <is>
+          <t>2 to 10 years</t>
+        </is>
+      </c>
+      <c r="I85" s="5" t="inlineStr">
         <is>
           <t>No waitlist</t>
         </is>
       </c>
-      <c r="J55" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="5" t="inlineStr">
-        <is>
-          <t>Honey Beehavior Analysis</t>
-        </is>
-      </c>
-      <c r="B56" s="5" t="inlineStr">
-        <is>
-          <t>(801) 317-8225</t>
-        </is>
-      </c>
-      <c r="C56" s="5" t="inlineStr">
-        <is>
-          <t>tricia.hayner@honeyaba.org</t>
-        </is>
-      </c>
-      <c r="D56" s="5" t="inlineStr">
-        <is>
-          <t>www.honeyaba.org</t>
-        </is>
-      </c>
-      <c r="E56" s="5" t="inlineStr"/>
-      <c r="F56" s="5" t="inlineStr">
-        <is>
-          <t>Medicaid, United, Cigna, Aetna, EMI</t>
-        </is>
-      </c>
-      <c r="G56" s="5" t="inlineStr">
-        <is>
-          <t>Salt Lake, Iron, Statewide via telehealth</t>
-        </is>
-      </c>
-      <c r="H56" s="5" t="inlineStr">
-        <is>
-          <t>All ages</t>
-        </is>
-      </c>
-      <c r="I56" s="5" t="inlineStr">
-        <is>
-          <t>Contact provider</t>
-        </is>
-      </c>
-      <c r="J56" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K56" s="5" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="3" t="inlineStr">
-        <is>
-          <t>Integrated Autism Therapies</t>
-        </is>
-      </c>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t>(801) 885-1700</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>barb@iatutah.com</t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
-          <t>www.iatutah.com</t>
-        </is>
-      </c>
-      <c r="E57" s="3" t="inlineStr">
-        <is>
-          <t>7733 S Redwood Road, West Jordan, UT 84084</t>
-        </is>
-      </c>
-      <c r="F57" s="3" t="inlineStr">
-        <is>
-          <t>Medicaid, PEHP, UHC, Tricare, BCBS</t>
-        </is>
-      </c>
-      <c r="G57" s="3" t="inlineStr">
-        <is>
-          <t>Salt Lake</t>
-        </is>
-      </c>
-      <c r="H57" s="3" t="inlineStr">
-        <is>
-          <t>All ages</t>
-        </is>
-      </c>
-      <c r="I57" s="3" t="inlineStr"/>
-      <c r="J57" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K57" s="3" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="5" t="inlineStr">
-        <is>
-          <t>Just Parent</t>
-        </is>
-      </c>
-      <c r="B58" s="5" t="inlineStr">
-        <is>
-          <t>(385) 376-3787</t>
-        </is>
-      </c>
-      <c r="C58" s="5" t="inlineStr"/>
-      <c r="D58" s="5" t="inlineStr">
-        <is>
-          <t>www.justparent.com</t>
-        </is>
-      </c>
-      <c r="E58" s="5" t="inlineStr"/>
-      <c r="F58" s="5" t="inlineStr">
-        <is>
-          <t>Medicaid, Magellan, BCBS</t>
-        </is>
-      </c>
-      <c r="G58" s="5" t="inlineStr">
-        <is>
-          <t>Statewide via telemedicine</t>
-        </is>
-      </c>
-      <c r="H58" s="5" t="inlineStr">
-        <is>
-          <t>All ages</t>
-        </is>
-      </c>
-      <c r="I58" s="5" t="inlineStr">
-        <is>
-          <t>Contact provider</t>
-        </is>
-      </c>
-      <c r="J58" s="5" t="inlineStr">
-        <is>
-          <t>Contact provider</t>
-        </is>
-      </c>
-      <c r="K58" s="5" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="inlineStr">
-        <is>
-          <t>Kids On The Move</t>
-        </is>
-      </c>
-      <c r="B59" s="3" t="inlineStr">
-        <is>
-          <t>(385) 292-5633</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr">
-        <is>
-          <t>crice@kotm.org</t>
-        </is>
-      </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>kotm.org</t>
-        </is>
-      </c>
-      <c r="E59" s="3" t="inlineStr">
-        <is>
-          <t>475 West 260 North Orem, UT 84057</t>
-        </is>
-      </c>
-      <c r="F59" s="3" t="inlineStr">
-        <is>
-          <t>Medicaid, Select Health, U of U, DMBA, BCBS</t>
-        </is>
-      </c>
-      <c r="G59" s="3" t="inlineStr">
-        <is>
-          <t>Clinic in Orem, in-home in Utah County</t>
-        </is>
-      </c>
-      <c r="H59" s="3" t="inlineStr">
-        <is>
-          <t>Up to 17 years</t>
-        </is>
-      </c>
-      <c r="I59" s="3" t="inlineStr">
-        <is>
-          <t>Contact provider</t>
-        </is>
-      </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>Contact provider</t>
-        </is>
-      </c>
-      <c r="K59" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="5" t="inlineStr">
-        <is>
-          <t>Kyo Autism Therapy</t>
-        </is>
-      </c>
-      <c r="B60" s="5" t="inlineStr">
-        <is>
-          <t>1-877-264-6747</t>
-        </is>
-      </c>
-      <c r="C60" s="5" t="inlineStr">
-        <is>
-          <t>info@kyocare.com</t>
-        </is>
-      </c>
-      <c r="D60" s="5" t="inlineStr">
-        <is>
-          <t>kyocare.com</t>
-        </is>
-      </c>
-      <c r="E60" s="5" t="inlineStr">
-        <is>
-          <t>5242 S College Drive, Ste 380 Murray, UT 84123</t>
-        </is>
-      </c>
-      <c r="F60" s="5" t="inlineStr">
-        <is>
-          <t>Aetna, Cigna, Humana, Regence, Select Health, UHC, Medicaid</t>
-        </is>
-      </c>
-      <c r="G60" s="5" t="inlineStr">
-        <is>
-          <t>Davis, Salt Lake, Utah</t>
-        </is>
-      </c>
-      <c r="H60" s="5" t="inlineStr">
-        <is>
-          <t>Up to 22 years</t>
-        </is>
-      </c>
-      <c r="I60" s="5" t="inlineStr"/>
-      <c r="J60" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K60" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr">
-        <is>
-          <t>Learning Solutions LLC</t>
-        </is>
-      </c>
-      <c r="B61" s="3" t="inlineStr">
-        <is>
-          <t>(435) 299-2399</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t>admin@LS-Inc.org</t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t>LearningSolutionsInc.org</t>
-        </is>
-      </c>
-      <c r="E61" s="3" t="inlineStr">
-        <is>
-          <t>80 N Vernal Ave, Vernal, UT 84078</t>
-        </is>
-      </c>
-      <c r="F61" s="3" t="inlineStr">
-        <is>
-          <t>Call provider</t>
-        </is>
-      </c>
-      <c r="G61" s="3" t="inlineStr">
-        <is>
-          <t>Uintah Basin and Tri-County area</t>
-        </is>
-      </c>
-      <c r="H61" s="3" t="inlineStr">
-        <is>
-          <t>Up to 18 years</t>
-        </is>
-      </c>
-      <c r="I61" s="3" t="inlineStr">
-        <is>
-          <t>6 months</t>
-        </is>
-      </c>
-      <c r="J61" s="3" t="inlineStr"/>
-      <c r="K61" s="3" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="5" t="inlineStr">
-        <is>
-          <t>Lexington Services</t>
-        </is>
-      </c>
-      <c r="B62" s="5" t="inlineStr">
-        <is>
-          <t>(801) 980-7970</t>
-        </is>
-      </c>
-      <c r="C62" s="5" t="inlineStr">
-        <is>
-          <t>utahinfo@lexingtonservices.com</t>
-        </is>
-      </c>
-      <c r="D62" s="5" t="inlineStr">
-        <is>
-          <t>www.lexingtonservices.com</t>
-        </is>
-      </c>
-      <c r="E62" s="5" t="inlineStr"/>
-      <c r="F62" s="5" t="inlineStr">
-        <is>
-          <t>Select Health, U of U, Cigna, BCBS, UHC, Medicaid</t>
-        </is>
-      </c>
-      <c r="G62" s="5" t="inlineStr">
-        <is>
-          <t>Salt Lake, Utah, Davis, Weber</t>
-        </is>
-      </c>
-      <c r="H62" s="5" t="inlineStr">
-        <is>
-          <t>All ages</t>
-        </is>
-      </c>
-      <c r="I62" s="5" t="inlineStr"/>
-      <c r="J62" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K62" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="inlineStr">
-        <is>
-          <t>Lighthouse Youth &amp; Family</t>
-        </is>
-      </c>
-      <c r="B63" s="3" t="inlineStr">
-        <is>
-          <t>(435) 790-2757</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr">
-        <is>
-          <t>lbretorr.aba@gmail.com</t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t>www.lighthouseyouthandfamily.com</t>
-        </is>
-      </c>
-      <c r="E63" s="3" t="inlineStr">
-        <is>
-          <t>365 W 50 N Ste W8, Vernal, UT 84078</t>
-        </is>
-      </c>
-      <c r="F63" s="3" t="inlineStr">
-        <is>
-          <t>Regence, BCBS, Medicaid, PEHP, Selecthealth</t>
-        </is>
-      </c>
-      <c r="G63" s="3" t="inlineStr">
-        <is>
-          <t>Uintah, Duchesne</t>
-        </is>
-      </c>
-      <c r="H63" s="3" t="inlineStr">
-        <is>
-          <t>All ages</t>
-        </is>
-      </c>
-      <c r="I63" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J63" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K63" s="3" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="5" t="inlineStr">
-        <is>
-          <t>Limitless Potential</t>
-        </is>
-      </c>
-      <c r="B64" s="5" t="inlineStr">
-        <is>
-          <t>(385) 426-9644</t>
-        </is>
-      </c>
-      <c r="C64" s="5" t="inlineStr">
-        <is>
-          <t>bekka@limitless-ut.com</t>
-        </is>
-      </c>
-      <c r="D64" s="5" t="inlineStr">
-        <is>
-          <t>limitless-ut.com</t>
-        </is>
-      </c>
-      <c r="E64" s="5" t="inlineStr">
-        <is>
-          <t>4881 S 1900 W, Roy, UT 84067</t>
-        </is>
-      </c>
-      <c r="F64" s="5" t="inlineStr">
-        <is>
-          <t>Medicaid, Tricare, Aetna, BCBS, UHC</t>
-        </is>
-      </c>
-      <c r="G64" s="5" t="inlineStr">
-        <is>
-          <t>Weber, Davis</t>
-        </is>
-      </c>
-      <c r="H64" s="5" t="inlineStr">
-        <is>
-          <t>All ages</t>
-        </is>
-      </c>
-      <c r="I64" s="5" t="inlineStr">
-        <is>
-          <t>No wait daytime</t>
-        </is>
-      </c>
-      <c r="J64" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K64" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="inlineStr">
-        <is>
-          <t>Manning Behavior Services</t>
-        </is>
-      </c>
-      <c r="B65" s="3" t="inlineStr">
-        <is>
-          <t>(801) 548-3091</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>christine@manningbehaviorservices.com</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>www.manningbehaviorservices.com</t>
-        </is>
-      </c>
-      <c r="E65" s="3" t="inlineStr"/>
-      <c r="F65" s="3" t="inlineStr">
-        <is>
-          <t>BCBS, UHC, Medicaid, Select Health, PEHP</t>
-        </is>
-      </c>
-      <c r="G65" s="3" t="inlineStr">
-        <is>
-          <t>Weber, Davis, Salt Lake</t>
-        </is>
-      </c>
-      <c r="H65" s="3" t="inlineStr">
-        <is>
-          <t>2 to 25 years</t>
-        </is>
-      </c>
-      <c r="I65" s="3" t="inlineStr">
-        <is>
-          <t>Daytime no waitlist</t>
-        </is>
-      </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>Contact provider</t>
-        </is>
-      </c>
-      <c r="K65" s="3" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="5" t="inlineStr">
-        <is>
-          <t>Mendability Sensory Enrichment</t>
-        </is>
-      </c>
-      <c r="B66" s="5" t="inlineStr">
-        <is>
-          <t>1-888-579-7002</t>
-        </is>
-      </c>
-      <c r="C66" s="5" t="inlineStr"/>
-      <c r="D66" s="5" t="inlineStr">
-        <is>
-          <t>www.mendability.com</t>
-        </is>
-      </c>
-      <c r="E66" s="5" t="inlineStr">
-        <is>
-          <t>915 S 500 E, Ste 101, American Fork, UT 84003</t>
-        </is>
-      </c>
-      <c r="F66" s="5" t="inlineStr"/>
-      <c r="G66" s="5" t="inlineStr">
-        <is>
-          <t>Weber, Davis, Salt Lake</t>
-        </is>
-      </c>
-      <c r="H66" s="5" t="inlineStr">
-        <is>
-          <t>All ages</t>
-        </is>
-      </c>
-      <c r="I66" s="5" t="inlineStr">
-        <is>
-          <t>Contact provider</t>
-        </is>
-      </c>
-      <c r="J66" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K66" s="5" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>Neurobehavioral Center for Growth</t>
-        </is>
-      </c>
-      <c r="B67" s="3" t="inlineStr">
-        <is>
-          <t>(801) 683-1062</t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="inlineStr">
-        <is>
-          <t>admin@neurobcg.com</t>
-        </is>
-      </c>
-      <c r="D67" s="3" t="inlineStr">
-        <is>
-          <t>www.neurobcg.com</t>
-        </is>
-      </c>
-      <c r="E67" s="3" t="inlineStr">
-        <is>
-          <t>415 S Medical Dr, Ste D101, Bountiful, UT 84010</t>
-        </is>
-      </c>
-      <c r="F67" s="3" t="inlineStr">
-        <is>
-          <t>Medicaid, most including Tri-Care, Optum</t>
-        </is>
-      </c>
-      <c r="G67" s="3" t="inlineStr">
-        <is>
-          <t>Bountiful, Layton, Salt Lake City, South Ogden</t>
-        </is>
-      </c>
-      <c r="H67" s="3" t="inlineStr">
-        <is>
-          <t>3 to 9 years</t>
-        </is>
-      </c>
-      <c r="I67" s="3" t="inlineStr">
-        <is>
-          <t>Contact provider</t>
-        </is>
-      </c>
-      <c r="J67" s="3" t="inlineStr"/>
-      <c r="K67" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="5" t="inlineStr">
-        <is>
-          <t>PBJ &amp; Friends</t>
-        </is>
-      </c>
-      <c r="B68" s="5" t="inlineStr">
-        <is>
-          <t>(801) 997-6839</t>
-        </is>
-      </c>
-      <c r="C68" s="5" t="inlineStr"/>
-      <c r="D68" s="5" t="inlineStr">
-        <is>
-          <t>pbjandfriends.com</t>
-        </is>
-      </c>
-      <c r="E68" s="5" t="inlineStr">
-        <is>
-          <t>1305 Commerce Dr, Ste 120, Saratoga Springs, UT 84045</t>
-        </is>
-      </c>
-      <c r="F68" s="5" t="inlineStr">
-        <is>
-          <t>Aetna, BCBS, Cigna, DMBA, EMI, Medicaid, UHC</t>
-        </is>
-      </c>
-      <c r="G68" s="5" t="inlineStr">
-        <is>
-          <t>Utah (Saratoga Springs)</t>
-        </is>
-      </c>
-      <c r="H68" s="5" t="inlineStr">
-        <is>
-          <t>Up to 18 years</t>
-        </is>
-      </c>
-      <c r="I68" s="5" t="inlineStr">
-        <is>
-          <t>2 months evenings</t>
-        </is>
-      </c>
-      <c r="J68" s="5" t="inlineStr">
-        <is>
-          <t>Contact provider</t>
-        </is>
-      </c>
-      <c r="K68" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="inlineStr">
-        <is>
-          <t>Peak Era ABA</t>
-        </is>
-      </c>
-      <c r="B69" s="3" t="inlineStr">
-        <is>
-          <t>(801) 406-6529</t>
-        </is>
-      </c>
-      <c r="C69" s="3" t="inlineStr">
-        <is>
-          <t>peak.era.aba@gmail.com</t>
-        </is>
-      </c>
-      <c r="D69" s="3" t="inlineStr">
-        <is>
-          <t>www.peakeraaba.com</t>
-        </is>
-      </c>
-      <c r="E69" s="3" t="inlineStr"/>
-      <c r="F69" s="3" t="inlineStr">
-        <is>
-          <t>Tricare, BCBS, Medicaid, UHC, Aetna, Cigna</t>
-        </is>
-      </c>
-      <c r="G69" s="3" t="inlineStr">
-        <is>
-          <t>Salt Lake, Utah, Davis, Wasatch, Summit</t>
-        </is>
-      </c>
-      <c r="H69" s="3" t="inlineStr">
-        <is>
-          <t>5 to 22 years</t>
-        </is>
-      </c>
-      <c r="I69" s="3" t="inlineStr">
-        <is>
-          <t>No waitlist</t>
-        </is>
-      </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K69" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="5" t="inlineStr">
-        <is>
-          <t>Perfect Piece</t>
-        </is>
-      </c>
-      <c r="B70" s="5" t="inlineStr">
-        <is>
-          <t>(508) 733-7279</t>
-        </is>
-      </c>
-      <c r="C70" s="5" t="inlineStr">
-        <is>
-          <t>Lauren@PerfectPiece.org</t>
-        </is>
-      </c>
-      <c r="D70" s="5" t="inlineStr">
-        <is>
-          <t>www.PerfectPiece.org</t>
-        </is>
-      </c>
-      <c r="E70" s="5" t="inlineStr">
-        <is>
-          <t>9980 S 300 W, Ste 200, Sandy, UT 84070</t>
-        </is>
-      </c>
-      <c r="F70" s="5" t="inlineStr">
-        <is>
-          <t>Medicaid, most insurances</t>
-        </is>
-      </c>
-      <c r="G70" s="5" t="inlineStr">
-        <is>
-          <t>Salt Lake, Northern Utah</t>
-        </is>
-      </c>
-      <c r="H70" s="5" t="inlineStr">
-        <is>
-          <t>2 to 21 years</t>
-        </is>
-      </c>
-      <c r="I70" s="5" t="inlineStr"/>
-      <c r="J70" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K70" s="5" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="inlineStr">
-        <is>
-          <t>Pingree Autism Center</t>
-        </is>
-      </c>
-      <c r="B71" s="3" t="inlineStr">
-        <is>
-          <t>(801) 581-0194</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr"/>
-      <c r="D71" s="3" t="inlineStr">
-        <is>
-          <t>www.carmenbpingree.com</t>
-        </is>
-      </c>
-      <c r="E71" s="3" t="inlineStr">
-        <is>
-          <t>780 S Guardsman Way, SLC, Utah 84108</t>
-        </is>
-      </c>
-      <c r="F71" s="3" t="inlineStr">
-        <is>
-          <t>Medicaid</t>
-        </is>
-      </c>
-      <c r="G71" s="3" t="inlineStr">
-        <is>
-          <t>Salt Lake City</t>
-        </is>
-      </c>
-      <c r="H71" s="3" t="inlineStr">
-        <is>
-          <t>3 to 18 years</t>
-        </is>
-      </c>
-      <c r="I71" s="3" t="inlineStr"/>
-      <c r="J71" s="3" t="inlineStr"/>
-      <c r="K71" s="3" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="5" t="inlineStr">
-        <is>
-          <t>Precision Learning &amp; Behavioral</t>
-        </is>
-      </c>
-      <c r="B72" s="5" t="inlineStr">
-        <is>
-          <t>(435) 219-1603</t>
-        </is>
-      </c>
-      <c r="C72" s="5" t="inlineStr">
-        <is>
-          <t>sodriscoll@precisionlearningbc.org</t>
-        </is>
-      </c>
-      <c r="D72" s="5" t="inlineStr"/>
-      <c r="E72" s="5" t="inlineStr">
-        <is>
-          <t>390 W Main Ste 100 Vernal, UT 84078</t>
-        </is>
-      </c>
-      <c r="F72" s="5" t="inlineStr">
-        <is>
-          <t>Medicaid, BCBS, PEHP, Tricare, Molina</t>
-        </is>
-      </c>
-      <c r="G72" s="5" t="inlineStr">
-        <is>
-          <t>Tri-County: Uintah, Duchesne, Dagget</t>
-        </is>
-      </c>
-      <c r="H72" s="5" t="inlineStr">
-        <is>
-          <t>All ages</t>
-        </is>
-      </c>
-      <c r="I72" s="5" t="inlineStr">
-        <is>
-          <t>No waitlist</t>
-        </is>
-      </c>
-      <c r="J72" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K72" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="inlineStr">
-        <is>
-          <t>Primary Children's ABA Clinic</t>
-        </is>
-      </c>
-      <c r="B73" s="3" t="inlineStr">
-        <is>
-          <t>(801) 285-1300</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="inlineStr"/>
-      <c r="D73" s="3" t="inlineStr">
-        <is>
-          <t>intermountainhealthcare.org</t>
-        </is>
-      </c>
-      <c r="E73" s="3" t="inlineStr">
-        <is>
-          <t>3773 W 12600 S, Riverton UT 84065</t>
-        </is>
-      </c>
-      <c r="F73" s="3" t="inlineStr">
-        <is>
-          <t>Most major and local plans</t>
-        </is>
-      </c>
-      <c r="G73" s="3" t="inlineStr">
-        <is>
-          <t>Riverton</t>
-        </is>
-      </c>
-      <c r="H73" s="3" t="inlineStr">
-        <is>
-          <t>2 to 6 years</t>
-        </is>
-      </c>
-      <c r="I73" s="3" t="inlineStr">
-        <is>
-          <t>No waitlist</t>
-        </is>
-      </c>
-      <c r="J73" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K73" s="3" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="5" t="inlineStr">
-        <is>
-          <t>Radiant Behavior Solutions</t>
-        </is>
-      </c>
-      <c r="B74" s="5" t="inlineStr"/>
-      <c r="C74" s="5" t="inlineStr">
-        <is>
-          <t>info@radiantbehavior.com</t>
-        </is>
-      </c>
-      <c r="D74" s="5" t="inlineStr">
-        <is>
-          <t>www.radiantbehavior.com</t>
-        </is>
-      </c>
-      <c r="E74" s="5" t="inlineStr"/>
-      <c r="F74" s="5" t="inlineStr">
-        <is>
-          <t>Medicaid, UUHP, PEHP, Cigna, Aetna</t>
-        </is>
-      </c>
-      <c r="G74" s="5" t="inlineStr">
-        <is>
-          <t>Box Elder, Cache, Salt Lake, Utah</t>
-        </is>
-      </c>
-      <c r="H74" s="5" t="inlineStr">
-        <is>
-          <t>All ages</t>
-        </is>
-      </c>
-      <c r="I74" s="5" t="inlineStr">
-        <is>
-          <t>No waitlist</t>
-        </is>
-      </c>
-      <c r="J74" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K74" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="inlineStr">
-        <is>
-          <t>Re Therapy Services</t>
-        </is>
-      </c>
-      <c r="B75" s="3" t="inlineStr">
-        <is>
-          <t>(801) 210-9319</t>
-        </is>
-      </c>
-      <c r="C75" s="3" t="inlineStr"/>
-      <c r="D75" s="3" t="inlineStr">
-        <is>
-          <t>www.retherapyservices.com</t>
-        </is>
-      </c>
-      <c r="E75" s="3" t="inlineStr">
-        <is>
-          <t>727 S Main Street, Spanish Fork, UT 84660</t>
-        </is>
-      </c>
-      <c r="F75" s="3" t="inlineStr">
-        <is>
-          <t>U of U, BCBS, Cigna, PEHP, Optum, Aetna, Medicaid</t>
-        </is>
-      </c>
-      <c r="G75" s="3" t="inlineStr">
-        <is>
-          <t>Utah, Delta, Nephi</t>
-        </is>
-      </c>
-      <c r="H75" s="3" t="inlineStr">
-        <is>
-          <t>2 to 18 years</t>
-        </is>
-      </c>
-      <c r="I75" s="3" t="inlineStr"/>
-      <c r="J75" s="3" t="inlineStr"/>
-      <c r="K75" s="3" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="5" t="inlineStr">
-        <is>
-          <t>Reaching Milestones</t>
-        </is>
-      </c>
-      <c r="B76" s="5" t="inlineStr">
-        <is>
-          <t>(678) 656-4716</t>
-        </is>
-      </c>
-      <c r="C76" s="5" t="inlineStr"/>
-      <c r="D76" s="5" t="inlineStr">
-        <is>
-          <t>www.reachingmilestones.com</t>
-        </is>
-      </c>
-      <c r="E76" s="5" t="inlineStr">
-        <is>
-          <t>365 W 1550 N, Layton, UT 84041</t>
-        </is>
-      </c>
-      <c r="F76" s="5" t="inlineStr">
-        <is>
-          <t>Aetna, BCBS, Cigna, Tri-Care, UnitedHealth</t>
-        </is>
-      </c>
-      <c r="G76" s="5" t="inlineStr">
-        <is>
-          <t>Layton area</t>
-        </is>
-      </c>
-      <c r="H76" s="5" t="inlineStr">
-        <is>
-          <t>2 to 18 years</t>
-        </is>
-      </c>
-      <c r="I76" s="5" t="inlineStr"/>
-      <c r="J76" s="5" t="inlineStr"/>
-      <c r="K76" s="5" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="inlineStr">
-        <is>
-          <t>Rogue Behavior Services</t>
-        </is>
-      </c>
-      <c r="B77" s="3" t="inlineStr">
-        <is>
-          <t>(385) 321-7880</t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="inlineStr">
-        <is>
-          <t>info@roguebx.com</t>
-        </is>
-      </c>
-      <c r="D77" s="3" t="inlineStr">
-        <is>
-          <t>roguebehaviorservices.com</t>
-        </is>
-      </c>
-      <c r="E77" s="3" t="inlineStr"/>
-      <c r="F77" s="3" t="inlineStr">
-        <is>
-          <t>Medicaid, Regence, Optum, UHC, Select Health</t>
-        </is>
-      </c>
-      <c r="G77" s="3" t="inlineStr">
-        <is>
-          <t>Box Elder, Cache, Davis, Iron, Kane, Salt Lake, Utah, Washington, Weber</t>
-        </is>
-      </c>
-      <c r="H77" s="3" t="inlineStr">
-        <is>
-          <t>All ages</t>
-        </is>
-      </c>
-      <c r="I77" s="3" t="inlineStr">
-        <is>
-          <t>No waitlist</t>
-        </is>
-      </c>
-      <c r="J77" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K77" s="3" t="inlineStr">
-        <is>
-          <t>Yes (some locations)</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="5" t="inlineStr">
-        <is>
-          <t>Sandstone Autism Services</t>
-        </is>
-      </c>
-      <c r="B78" s="5" t="inlineStr">
-        <is>
-          <t>(801) 696-9779</t>
-        </is>
-      </c>
-      <c r="C78" s="5" t="inlineStr">
-        <is>
-          <t>sandstoneautismservices@gmail.com</t>
-        </is>
-      </c>
-      <c r="D78" s="5" t="inlineStr">
-        <is>
-          <t>www.sandstoneautismservices.org</t>
-        </is>
-      </c>
-      <c r="E78" s="5" t="inlineStr">
-        <is>
-          <t>95 S 100 E St 300, Payson, UT 84651</t>
-        </is>
-      </c>
-      <c r="F78" s="5" t="inlineStr">
-        <is>
-          <t>Aetna, BCBS, Select Health, EMI, DMBA, Medicaid, U of U</t>
-        </is>
-      </c>
-      <c r="G78" s="5" t="inlineStr">
-        <is>
-          <t>Utah, Juab, Sanpete, Washington, Cache</t>
-        </is>
-      </c>
-      <c r="H78" s="5" t="inlineStr">
-        <is>
-          <t>All ages</t>
-        </is>
-      </c>
-      <c r="I78" s="5" t="inlineStr"/>
-      <c r="J78" s="5" t="inlineStr"/>
-      <c r="K78" s="5" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="3" t="inlineStr">
-        <is>
-          <t>Simple Behavior Solutions</t>
-        </is>
-      </c>
-      <c r="B79" s="3" t="inlineStr">
-        <is>
-          <t>(951) 905-8652</t>
-        </is>
-      </c>
-      <c r="C79" s="3" t="inlineStr">
-        <is>
-          <t>office@simplebehaviorsolutions.com</t>
-        </is>
-      </c>
-      <c r="D79" s="3" t="inlineStr">
-        <is>
-          <t>Simplebehaviorsolutions.com</t>
-        </is>
-      </c>
-      <c r="E79" s="3" t="inlineStr"/>
-      <c r="F79" s="3" t="inlineStr">
-        <is>
-          <t>Medicaid, private pay</t>
-        </is>
-      </c>
-      <c r="G79" s="3" t="inlineStr">
-        <is>
-          <t>St George</t>
-        </is>
-      </c>
-      <c r="H79" s="3" t="inlineStr">
-        <is>
-          <t>Up to 15 years</t>
-        </is>
-      </c>
-      <c r="I79" s="3" t="inlineStr">
-        <is>
-          <t>No waitlist</t>
-        </is>
-      </c>
-      <c r="J79" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K79" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="5" t="inlineStr">
-        <is>
-          <t>Success on the Spectrum</t>
-        </is>
-      </c>
-      <c r="B80" s="5" t="inlineStr">
-        <is>
-          <t>(385) 486-4190</t>
-        </is>
-      </c>
-      <c r="C80" s="5" t="inlineStr">
-        <is>
-          <t>americanfork@successonthespectrum.com</t>
-        </is>
-      </c>
-      <c r="D80" s="5" t="inlineStr">
-        <is>
-          <t>www.successonthespectrum.com</t>
-        </is>
-      </c>
-      <c r="E80" s="5" t="inlineStr">
-        <is>
-          <t>36 N 1100 E, Ste B American Fork, UT 84003</t>
-        </is>
-      </c>
-      <c r="F80" s="5" t="inlineStr">
-        <is>
-          <t>Medicaid, EMI, BCBS, Select Health</t>
-        </is>
-      </c>
-      <c r="G80" s="5" t="inlineStr">
-        <is>
-          <t>Utah, Salt Lake</t>
-        </is>
-      </c>
-      <c r="H80" s="5" t="inlineStr">
-        <is>
-          <t>Up to 18 years</t>
-        </is>
-      </c>
-      <c r="I80" s="5" t="inlineStr">
-        <is>
-          <t>No waitlist</t>
-        </is>
-      </c>
-      <c r="J80" s="5" t="inlineStr"/>
-      <c r="K80" s="5" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="3" t="inlineStr">
-        <is>
-          <t>Summit Behavior Services</t>
-        </is>
-      </c>
-      <c r="B81" s="3" t="inlineStr">
-        <is>
-          <t>(435) 275-8911</t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="inlineStr"/>
-      <c r="D81" s="3" t="inlineStr">
-        <is>
-          <t>www.summitbehaviorservicesutah.weebly.com</t>
-        </is>
-      </c>
-      <c r="E81" s="3" t="inlineStr">
-        <is>
-          <t>162 N 400 E, Ste A105, St. George, UT 84770</t>
-        </is>
-      </c>
-      <c r="F81" s="3" t="inlineStr">
-        <is>
-          <t>Medicaid</t>
-        </is>
-      </c>
-      <c r="G81" s="3" t="inlineStr">
-        <is>
-          <t>St. George, Cedar City</t>
-        </is>
-      </c>
-      <c r="H81" s="3" t="inlineStr">
-        <is>
-          <t>3 to 18 years</t>
-        </is>
-      </c>
-      <c r="I81" s="3" t="inlineStr">
-        <is>
-          <t>Contact provider</t>
-        </is>
-      </c>
-      <c r="J81" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K81" s="3" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="5" t="inlineStr">
-        <is>
-          <t>Transitional Behavior Support</t>
-        </is>
-      </c>
-      <c r="B82" s="5" t="inlineStr">
-        <is>
-          <t>(385) 245-2555</t>
-        </is>
-      </c>
-      <c r="C82" s="5" t="inlineStr">
-        <is>
-          <t>leslielilino@transitionalbehaviorsupport.com</t>
-        </is>
-      </c>
-      <c r="D82" s="5" t="inlineStr">
-        <is>
-          <t>www.transitionalbehaviorsupport.com</t>
-        </is>
-      </c>
-      <c r="E82" s="5" t="inlineStr"/>
-      <c r="F82" s="5" t="inlineStr">
-        <is>
-          <t>BCBS, Select Health, Cigna, Medicaid, Aetna, DSPD</t>
-        </is>
-      </c>
-      <c r="G82" s="5" t="inlineStr">
-        <is>
-          <t>Summit: Heber, Midway; Utah: Lehi, Orem, Provo</t>
-        </is>
-      </c>
-      <c r="H82" s="5" t="inlineStr">
-        <is>
-          <t>3 to 65 years</t>
-        </is>
-      </c>
-      <c r="I82" s="5" t="inlineStr">
-        <is>
-          <t>No waitlist</t>
-        </is>
-      </c>
-      <c r="J82" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K82" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="3" t="inlineStr">
-        <is>
-          <t>Utah Autism Academy</t>
-        </is>
-      </c>
-      <c r="B83" s="3" t="inlineStr">
-        <is>
-          <t>(801) 456-9955</t>
-        </is>
-      </c>
-      <c r="C83" s="3" t="inlineStr"/>
-      <c r="D83" s="3" t="inlineStr">
-        <is>
-          <t>utahautismacademy.com</t>
-        </is>
-      </c>
-      <c r="E83" s="3" t="inlineStr">
-        <is>
-          <t>7434 S State Street, Midvale, Utah 84047</t>
-        </is>
-      </c>
-      <c r="F83" s="3" t="inlineStr">
-        <is>
-          <t>Medicaid, most insurances</t>
-        </is>
-      </c>
-      <c r="G83" s="3" t="inlineStr">
-        <is>
-          <t>Midvale, Orem, St. George</t>
-        </is>
-      </c>
-      <c r="H83" s="3" t="inlineStr">
-        <is>
-          <t>2 to 21 years</t>
-        </is>
-      </c>
-      <c r="I83" s="3" t="inlineStr"/>
-      <c r="J83" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K83" s="3" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="5" t="inlineStr">
-        <is>
-          <t>Utah Behavior Services</t>
-        </is>
-      </c>
-      <c r="B84" s="5" t="inlineStr">
-        <is>
-          <t>(801) 255-5131</t>
-        </is>
-      </c>
-      <c r="C84" s="5" t="inlineStr">
-        <is>
-          <t>office@utbs.com</t>
-        </is>
-      </c>
-      <c r="D84" s="5" t="inlineStr">
-        <is>
-          <t>utahbehaviorservices.com</t>
-        </is>
-      </c>
-      <c r="E84" s="5" t="inlineStr"/>
-      <c r="F84" s="5" t="inlineStr">
-        <is>
-          <t>Medicaid, most insurances</t>
-        </is>
-      </c>
-      <c r="G84" s="5" t="inlineStr">
-        <is>
-          <t>Bear River, Brigham City, Cedar City, Lehi, SLC, Richfield, Riverdale, St. George</t>
-        </is>
-      </c>
-      <c r="H84" s="5" t="inlineStr">
-        <is>
-          <t>Up to 21 years</t>
-        </is>
-      </c>
-      <c r="I84" s="5" t="inlineStr"/>
-      <c r="J84" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K84" s="5" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="3" t="inlineStr">
-        <is>
-          <t>Whole Child Therapy</t>
-        </is>
-      </c>
-      <c r="B85" s="3" t="inlineStr">
-        <is>
-          <t>(801) 210-9319</t>
-        </is>
-      </c>
-      <c r="C85" s="3" t="inlineStr">
-        <is>
-          <t>contactus@twctherapy.com</t>
-        </is>
-      </c>
-      <c r="D85" s="3" t="inlineStr">
-        <is>
-          <t>www.thewholechildtherapy.com</t>
-        </is>
-      </c>
-      <c r="E85" s="3" t="inlineStr">
-        <is>
-          <t>1570 N Main Street, Spanish Fork, UT 84660</t>
-        </is>
-      </c>
-      <c r="F85" s="3" t="inlineStr">
-        <is>
-          <t>Select Health, Medicaid, U of U, PEHP, BCBS, UHC</t>
-        </is>
-      </c>
-      <c r="G85" s="3" t="inlineStr">
-        <is>
-          <t>Utah</t>
-        </is>
-      </c>
-      <c r="H85" s="3" t="inlineStr">
-        <is>
-          <t>2 to 18 years</t>
-        </is>
-      </c>
-      <c r="I85" s="3" t="inlineStr">
-        <is>
-          <t>Afterschool 9 months</t>
-        </is>
-      </c>
-      <c r="J85" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K85" s="3" t="inlineStr">
+      <c r="J85" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K85" s="5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -5255,38 +5255,42 @@
     <row r="86">
       <c r="A86" s="5" t="inlineStr">
         <is>
-          <t>Wildflower Grove ABA</t>
+          <t>Golden Touch ABA - Provo (Utah County)</t>
         </is>
       </c>
       <c r="B86" s="5" t="inlineStr">
         <is>
-          <t>(801) 630-8420</t>
+          <t>(801) 630-5443</t>
         </is>
       </c>
       <c r="C86" s="5" t="inlineStr">
         <is>
-          <t>Danielle@finnihealth.com</t>
+          <t>info@goldentouchaba.com</t>
         </is>
       </c>
       <c r="D86" s="5" t="inlineStr">
         <is>
-          <t>www.wildflowergroveaba.com</t>
-        </is>
-      </c>
-      <c r="E86" s="5" t="inlineStr"/>
+          <t>www.goldentouchaba.com</t>
+        </is>
+      </c>
+      <c r="E86" s="5" t="inlineStr">
+        <is>
+          <t>180 N University Ave, Suite 270, Provo, UT 84601</t>
+        </is>
+      </c>
       <c r="F86" s="5" t="inlineStr">
         <is>
-          <t>Most insurances</t>
+          <t>BCBS, DMBA, EMI, Medicaid, PEHP</t>
         </is>
       </c>
       <c r="G86" s="5" t="inlineStr">
         <is>
-          <t>Salt Lake</t>
+          <t>Utah County</t>
         </is>
       </c>
       <c r="H86" s="5" t="inlineStr">
         <is>
-          <t>2 to 10 years</t>
+          <t>Up to 18 years</t>
         </is>
       </c>
       <c r="I86" s="5" t="inlineStr">
@@ -5301,7 +5305,121 @@
       </c>
       <c r="K86" s="5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>Golden Touch ABA - Farmington (Davis County)</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>(801) 630-5443</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="inlineStr">
+        <is>
+          <t>info@goldentouchaba.com</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>www.goldentouchaba.com</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="inlineStr">
+        <is>
+          <t>240 N E Promontory Suite 200, Farmington, UT 84025</t>
+        </is>
+      </c>
+      <c r="F87" s="3" t="inlineStr">
+        <is>
+          <t>BCBS, DMBA, EMI, Medicaid, PEHP</t>
+        </is>
+      </c>
+      <c r="G87" s="3" t="inlineStr">
+        <is>
+          <t>Davis County, Weber County</t>
+        </is>
+      </c>
+      <c r="H87" s="3" t="inlineStr">
+        <is>
+          <t>Up to 18 years</t>
+        </is>
+      </c>
+      <c r="I87" s="3" t="inlineStr">
+        <is>
+          <t>No waitlist</t>
+        </is>
+      </c>
+      <c r="J87" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K87" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="inlineStr">
+        <is>
+          <t>Golden Touch ABA - Salt Lake County</t>
+        </is>
+      </c>
+      <c r="B88" s="5" t="inlineStr">
+        <is>
+          <t>(801) 630-5443</t>
+        </is>
+      </c>
+      <c r="C88" s="5" t="inlineStr">
+        <is>
+          <t>info@goldentouchaba.com</t>
+        </is>
+      </c>
+      <c r="D88" s="5" t="inlineStr">
+        <is>
+          <t>www.goldentouchaba.com</t>
+        </is>
+      </c>
+      <c r="E88" s="5" t="inlineStr">
+        <is>
+          <t>In-home services throughout Salt Lake County</t>
+        </is>
+      </c>
+      <c r="F88" s="5" t="inlineStr">
+        <is>
+          <t>BCBS, DMBA, EMI, Medicaid, PEHP</t>
+        </is>
+      </c>
+      <c r="G88" s="5" t="inlineStr">
+        <is>
+          <t>Salt Lake County, Wasatch County</t>
+        </is>
+      </c>
+      <c r="H88" s="5" t="inlineStr">
+        <is>
+          <t>Up to 18 years</t>
+        </is>
+      </c>
+      <c r="I88" s="5" t="inlineStr">
+        <is>
+          <t>No waitlist</t>
+        </is>
+      </c>
+      <c r="J88" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K88" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
